--- a/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2,722.64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2,653.01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,738.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2,587.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2,608.51</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2,587.75</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,738.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,653.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2,722.64</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>2738.61</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2587.75</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2662.104</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>86.66</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60.14</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>88.23</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>60.14</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>79.532</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2,782.78</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,741.24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,813.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2,675.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2,695.17</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2,675.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2,813.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,741.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2,782.78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2813.99</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2675</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2741.636</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>754.54</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>670.32</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>758.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>726.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>801.16</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>726.18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>758.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>670.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>754.54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>801.16</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>670.3200000000001</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>742.116</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>308.07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>271.75</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>272.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>267.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>316.72</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>267.97</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>272.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>271.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>308.07</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>316.72</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>267.97</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>287.412</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>263.19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>174.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-35.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-135.44</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-35.69</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>52.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>174.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>263.19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>263.19</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-135.44</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>63.89200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>458.48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>461.53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>452.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>420.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>394.44</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>420.59</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>452.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>461.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>458.48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>461.53</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>394.44</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>437.488</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>119.05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>110.96</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>128.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>134.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>125.17</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>134.91</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>128.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>110.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>119.05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>134.91</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>110.96</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>123.806</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>889.81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>742.54</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>826.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>763.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,135.54</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>763.97</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>826.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>742.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>889.81</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1135.54</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>742.54</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>871.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>-10.36</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>309.46</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>322.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>397.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>57.58</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>397.07</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>322.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>309.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-10.36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>397.07</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-10.36</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>215.322</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>30.57</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>44.68</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>32.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>31.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>60.37</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>60.37</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>39.916</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>50.01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>340.65</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>355.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>441.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>88.15</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>441.75</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>355.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>340.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>50.01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>441.75</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>50.01</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>255.238</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>4.02</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15.31</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>29.39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>13.688</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>327.73</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>348.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>426.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>84.13</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>426.44</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>348.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>327.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>426.44</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>241.55</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>327.73</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>348.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>426.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>84.13</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>426.44</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>348.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>327.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>426.44</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>241.55</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>48.98</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>58.27</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>85.21</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>19.59</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>48.98</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>85.20999999999999</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>44.696</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>278.75</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>329.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>341.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>25.86</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>341.23</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>329.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>278.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>341.23</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>196.854</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>278.75</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>329.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>341.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>25.86</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>341.23</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>329.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>278.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>341.23</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>196.854</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>160.68</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>160.72</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>160.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>160.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>160.90</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>160.88</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>160.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>160.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>160.68</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>160.68</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>160.804</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.45</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.444</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.45</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>0.32</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.444</v>
       </c>
     </row>
     <row r="31"/>
